--- a/Dataset/Kaggle/results/ml4/no_best.xlsx
+++ b/Dataset/Kaggle/results/ml4/no_best.xlsx
@@ -488,19 +488,19 @@
         <v>0.9999999999999998</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5355704852123444</v>
+        <v>0.6612512926174323</v>
       </c>
       <c r="E2" t="n">
         <v>423.6768629560579</v>
       </c>
       <c r="F2" t="n">
-        <v>15.59733038512018</v>
+        <v>5.740468830768526</v>
       </c>
       <c r="G2" t="n">
-        <v>2.223541609560969</v>
+        <v>2.274955468953114</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9376844504960768</v>
+        <v>0.9347269400615416</v>
       </c>
     </row>
     <row r="3">
@@ -516,19 +516,19 @@
         <v>0.9999999999999998</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5775306808864726</v>
+        <v>0.6990488602719299</v>
       </c>
       <c r="E3" t="n">
         <v>430.6625331019149</v>
       </c>
       <c r="F3" t="n">
-        <v>15.59733038512018</v>
+        <v>5.740468830768526</v>
       </c>
       <c r="G3" t="n">
-        <v>2.224672821793652</v>
+        <v>2.274966936539855</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9435541754342133</v>
+        <v>0.9281966750749441</v>
       </c>
     </row>
     <row r="4">
@@ -544,19 +544,19 @@
         <v>0.9999999999999998</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7612872627687999</v>
+        <v>0.7622187650611084</v>
       </c>
       <c r="E4" t="n">
         <v>482.1250562733073</v>
       </c>
       <c r="F4" t="n">
-        <v>15.59733038512018</v>
+        <v>5.305957406282569</v>
       </c>
       <c r="G4" t="n">
-        <v>2.223308847862162</v>
+        <v>2.311187868153878</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9135661098260074</v>
+        <v>0.9043934073713135</v>
       </c>
     </row>
     <row r="5">
@@ -572,19 +572,19 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8298695891787595</v>
+        <v>0.8077035390956416</v>
       </c>
       <c r="E5" t="n">
         <v>481.931915261898</v>
       </c>
       <c r="F5" t="n">
-        <v>10.95200491102514</v>
+        <v>5.305957406282569</v>
       </c>
       <c r="G5" t="n">
-        <v>2.311718574758051</v>
+        <v>2.310890808588466</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9093741054719803</v>
+        <v>0.9043934073713135</v>
       </c>
     </row>
     <row r="6">
@@ -600,19 +600,19 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8238091596570924</v>
+        <v>0.8570962420314223</v>
       </c>
       <c r="E6" t="n">
-        <v>614.7376195061562</v>
+        <v>614.3613833194573</v>
       </c>
       <c r="F6" t="n">
-        <v>12.16485231192758</v>
+        <v>5.305957406282569</v>
       </c>
       <c r="G6" t="n">
-        <v>2.277859689824451</v>
+        <v>2.310914759174712</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9223048661748533</v>
+        <v>0.9027768196033616</v>
       </c>
     </row>
   </sheetData>
